--- a/01_data_prep_R/output/namangan/analysis_output.xlsx
+++ b/01_data_prep_R/output/namangan/analysis_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t xml:space="preserve">district</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t xml:space="preserve">Билмайди</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Давлатобод</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -2181,141 +2178,103 @@
       <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
-      <c r="AE14"/>
-      <c r="AF14"/>
-      <c r="AG14"/>
-      <c r="AH14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="n">
+      <c r="B14" t="n">
         <v>29</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C14" t="n">
         <v>13</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D14" t="n">
         <v>20</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E14" t="n">
         <v>11</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F14" t="n">
         <v>12</v>
       </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>2</v>
       </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
         <v>2</v>
       </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
         <v>2</v>
       </c>
-      <c r="AD15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
+      <c r="AD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2338,55 +2297,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>63</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>64</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>65</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>67</v>
-      </c>
-      <c r="R1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -2394,55 +2353,55 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" t="s">
+      <c r="M2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" t="s">
         <v>70</v>
       </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="Q2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" t="s">
         <v>76</v>
-      </c>
-      <c r="L2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -2450,55 +2409,55 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
         <v>78</v>
       </c>
-      <c r="D3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" t="s">
         <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" t="s">
-        <v>80</v>
-      </c>
-      <c r="P3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -2506,55 +2465,55 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>84</v>
-      </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
         <v>69</v>
       </c>
-      <c r="I4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>70</v>
       </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" t="s">
-        <v>71</v>
-      </c>
       <c r="P4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" t="s">
-        <v>76</v>
-      </c>
       <c r="R4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -2562,55 +2521,55 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" t="s">
         <v>74</v>
       </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -2618,55 +2577,55 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
         <v>86</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
         <v>87</v>
       </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="R6" t="s">
         <v>76</v>
-      </c>
-      <c r="O6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>78</v>
-      </c>
-      <c r="R6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2674,55 +2633,55 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
         <v>70</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s">
         <v>71</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" t="s">
         <v>75</v>
       </c>
-      <c r="F7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>74</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>76</v>
       </c>
-      <c r="N7" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" t="s">
-        <v>77</v>
-      </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -2730,55 +2689,55 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" t="s">
         <v>74</v>
       </c>
-      <c r="E8" t="s">
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="s">
         <v>76</v>
       </c>
-      <c r="F8" t="s">
+      <c r="Q8" t="s">
+        <v>69</v>
+      </c>
+      <c r="R8" t="s">
         <v>76</v>
-      </c>
-      <c r="G8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" t="s">
-        <v>80</v>
-      </c>
-      <c r="P8" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>70</v>
-      </c>
-      <c r="R8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -2786,55 +2745,55 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
         <v>71</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
         <v>76</v>
       </c>
-      <c r="G9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" t="s">
-        <v>77</v>
-      </c>
       <c r="K9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
         <v>80</v>
       </c>
-      <c r="L9" t="s">
-        <v>81</v>
-      </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -2842,55 +2801,55 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" t="s">
         <v>74</v>
       </c>
-      <c r="D10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="N10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" t="s">
         <v>76</v>
-      </c>
-      <c r="F10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O10" t="s">
-        <v>80</v>
-      </c>
-      <c r="P10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>75</v>
-      </c>
-      <c r="R10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -2898,55 +2857,55 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" t="s">
         <v>71</v>
       </c>
-      <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="O11" t="s">
         <v>74</v>
       </c>
-      <c r="J11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="P11" t="s">
         <v>70</v>
       </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" t="s">
-        <v>72</v>
-      </c>
-      <c r="O11" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" t="s">
-        <v>71</v>
-      </c>
       <c r="Q11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -2954,55 +2913,55 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" t="s">
         <v>72</v>
       </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="J12" t="s">
         <v>76</v>
       </c>
-      <c r="E12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" t="s">
         <v>76</v>
       </c>
-      <c r="H12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
         <v>76</v>
       </c>
-      <c r="O12" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" t="s">
-        <v>77</v>
-      </c>
       <c r="Q12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -3010,111 +2969,111 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s">
         <v>76</v>
       </c>
-      <c r="G13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" t="s">
-        <v>77</v>
-      </c>
       <c r="L13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" t="s">
         <v>70</v>
       </c>
-      <c r="M13" t="s">
-        <v>70</v>
-      </c>
-      <c r="N13" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" t="s">
-        <v>71</v>
-      </c>
       <c r="P13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" t="s">
         <v>70</v>
       </c>
-      <c r="E14" t="s">
+      <c r="L14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>83</v>
+      </c>
+      <c r="R14" t="s">
         <v>76</v>
-      </c>
-      <c r="F14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" t="s">
-        <v>84</v>
-      </c>
-      <c r="N14" t="s">
-        <v>75</v>
-      </c>
-      <c r="O14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P14" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>84</v>
-      </c>
-      <c r="R14" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
